--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,607 +425,1084 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Forecast</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Diff_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Pct_Mean Forecast</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Diff_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Pct_P70 Forecast</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Diff_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Pct_P80 Forecast</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Diff_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Pct_P90 Forecast</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ASIN</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Prophet Forecast</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Product Title</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>254</v>
+      </c>
+      <c r="B2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C2" t="n">
+        <v>201</v>
+      </c>
+      <c r="D2" t="n">
+        <v>223</v>
+      </c>
+      <c r="E2" t="n">
+        <v>256</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45.14285714285714</v>
+      </c>
+      <c r="H2" t="n">
+        <v>53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26.3681592039801</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13.90134529147982</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.78125</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v/>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>W01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="R2" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>317</v>
+      </c>
+      <c r="B3" t="n">
+        <v>162</v>
+      </c>
+      <c r="C3" t="n">
+        <v>191</v>
+      </c>
+      <c r="D3" t="n">
+        <v>219</v>
+      </c>
+      <c r="E3" t="n">
+        <v>261</v>
+      </c>
+      <c r="F3" t="n">
+        <v>155</v>
+      </c>
+      <c r="G3" t="n">
+        <v>95.67901234567901</v>
+      </c>
+      <c r="H3" t="n">
+        <v>126</v>
+      </c>
+      <c r="I3" t="n">
+        <v>65.96858638743456</v>
+      </c>
+      <c r="J3" t="n">
+        <v>98</v>
+      </c>
+      <c r="K3" t="n">
+        <v>44.74885844748858</v>
+      </c>
+      <c r="L3" t="n">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>21.45593869731801</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>B0DGVC3DDW</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>237.9</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v/>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>W02</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>410</v>
+      </c>
+      <c r="B4" t="n">
+        <v>153</v>
+      </c>
+      <c r="C4" t="n">
+        <v>181</v>
+      </c>
+      <c r="D4" t="n">
+        <v>209</v>
+      </c>
+      <c r="E4" t="n">
+        <v>251</v>
+      </c>
+      <c r="F4" t="n">
+        <v>257</v>
+      </c>
+      <c r="G4" t="n">
+        <v>167.9738562091503</v>
+      </c>
+      <c r="H4" t="n">
+        <v>229</v>
+      </c>
+      <c r="I4" t="n">
+        <v>126.5193370165746</v>
+      </c>
+      <c r="J4" t="n">
+        <v>201</v>
+      </c>
+      <c r="K4" t="n">
+        <v>96.17224880382776</v>
+      </c>
+      <c r="L4" t="n">
+        <v>159</v>
+      </c>
+      <c r="M4" t="n">
+        <v>63.34661354581673</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>W03</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>531</v>
+      </c>
+      <c r="B5" t="n">
+        <v>154</v>
+      </c>
+      <c r="C5" t="n">
+        <v>183</v>
+      </c>
+      <c r="D5" t="n">
+        <v>213</v>
+      </c>
+      <c r="E5" t="n">
+        <v>259</v>
+      </c>
+      <c r="F5" t="n">
+        <v>377</v>
+      </c>
+      <c r="G5" t="n">
+        <v>244.8051948051948</v>
+      </c>
+      <c r="H5" t="n">
+        <v>348</v>
+      </c>
+      <c r="I5" t="n">
+        <v>190.1639344262295</v>
+      </c>
+      <c r="J5" t="n">
+        <v>318</v>
+      </c>
+      <c r="K5" t="n">
+        <v>149.2957746478873</v>
+      </c>
+      <c r="L5" t="n">
+        <v>272</v>
+      </c>
+      <c r="M5" t="n">
+        <v>105.019305019305</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>W04</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>687</v>
+      </c>
+      <c r="B6" t="n">
+        <v>163</v>
+      </c>
+      <c r="C6" t="n">
+        <v>195</v>
+      </c>
+      <c r="D6" t="n">
+        <v>229</v>
+      </c>
+      <c r="E6" t="n">
+        <v>282</v>
+      </c>
+      <c r="F6" t="n">
+        <v>524</v>
+      </c>
+      <c r="G6" t="n">
+        <v>321.4723926380368</v>
+      </c>
+      <c r="H6" t="n">
+        <v>492</v>
+      </c>
+      <c r="I6" t="n">
+        <v>252.3076923076923</v>
+      </c>
+      <c r="J6" t="n">
+        <v>458</v>
+      </c>
+      <c r="K6" t="n">
+        <v>200</v>
+      </c>
+      <c r="L6" t="n">
+        <v>405</v>
+      </c>
+      <c r="M6" t="n">
+        <v>143.6170212765958</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>W05</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>889</v>
+      </c>
+      <c r="B7" t="n">
+        <v>167</v>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" t="n">
+        <v>236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>291</v>
+      </c>
+      <c r="F7" t="n">
+        <v>722</v>
+      </c>
+      <c r="G7" t="n">
+        <v>432.3353293413174</v>
+      </c>
+      <c r="H7" t="n">
+        <v>689</v>
+      </c>
+      <c r="I7" t="n">
+        <v>344.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>653</v>
+      </c>
+      <c r="K7" t="n">
+        <v>276.6949152542373</v>
+      </c>
+      <c r="L7" t="n">
+        <v>598</v>
+      </c>
+      <c r="M7" t="n">
+        <v>205.4982817869416</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>W06</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B8" t="n">
+        <v>177</v>
+      </c>
+      <c r="C8" t="n">
+        <v>214</v>
+      </c>
+      <c r="D8" t="n">
+        <v>255</v>
+      </c>
+      <c r="E8" t="n">
+        <v>321</v>
+      </c>
+      <c r="F8" t="n">
+        <v>974</v>
+      </c>
+      <c r="G8" t="n">
+        <v>550.2824858757062</v>
+      </c>
+      <c r="H8" t="n">
+        <v>937</v>
+      </c>
+      <c r="I8" t="n">
+        <v>437.8504672897196</v>
+      </c>
+      <c r="J8" t="n">
+        <v>896</v>
+      </c>
+      <c r="K8" t="n">
+        <v>351.3725490196078</v>
+      </c>
+      <c r="L8" t="n">
+        <v>830</v>
+      </c>
+      <c r="M8" t="n">
+        <v>258.5669781931464</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>W07</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1489</v>
+      </c>
+      <c r="B9" t="n">
+        <v>171</v>
+      </c>
+      <c r="C9" t="n">
+        <v>207</v>
+      </c>
+      <c r="D9" t="n">
+        <v>249</v>
+      </c>
+      <c r="E9" t="n">
+        <v>315</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1318</v>
+      </c>
+      <c r="G9" t="n">
+        <v>770.7602339181286</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1282</v>
+      </c>
+      <c r="I9" t="n">
+        <v>619.3236714975845</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1240</v>
+      </c>
+      <c r="K9" t="n">
+        <v>497.9919678714859</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1174</v>
+      </c>
+      <c r="M9" t="n">
+        <v>372.6984126984127</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>W08</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1927</v>
+      </c>
+      <c r="B10" t="n">
+        <v>164</v>
+      </c>
+      <c r="C10" t="n">
+        <v>198</v>
+      </c>
+      <c r="D10" t="n">
+        <v>233</v>
+      </c>
+      <c r="E10" t="n">
+        <v>288</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1763</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1075</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1729</v>
+      </c>
+      <c r="I10" t="n">
+        <v>873.2323232323232</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1694</v>
+      </c>
+      <c r="K10" t="n">
+        <v>727.0386266094421</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1639</v>
+      </c>
+      <c r="M10" t="n">
+        <v>569.0972222222223</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>W09</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2493</v>
+      </c>
+      <c r="B11" t="n">
+        <v>174</v>
+      </c>
+      <c r="C11" t="n">
+        <v>211</v>
+      </c>
+      <c r="D11" t="n">
+        <v>254</v>
+      </c>
+      <c r="E11" t="n">
+        <v>321</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2319</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1332.758620689655</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2282</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1081.516587677725</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2239</v>
+      </c>
+      <c r="K11" t="n">
+        <v>881.4960629921259</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2172</v>
+      </c>
+      <c r="M11" t="n">
+        <v>676.6355140186917</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>W10</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3226</v>
+      </c>
+      <c r="B12" t="n">
+        <v>168</v>
+      </c>
+      <c r="C12" t="n">
+        <v>204</v>
+      </c>
+      <c r="D12" t="n">
+        <v>245</v>
+      </c>
+      <c r="E12" t="n">
+        <v>312</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3058</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1820.238095238095</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3022</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1481.372549019608</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2981</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1216.734693877551</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2914</v>
+      </c>
+      <c r="M12" t="n">
+        <v>933.9743589743589</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>W11</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4175</v>
+      </c>
+      <c r="B13" t="n">
+        <v>180</v>
+      </c>
+      <c r="C13" t="n">
+        <v>220</v>
+      </c>
+      <c r="D13" t="n">
+        <v>270</v>
+      </c>
+      <c r="E13" t="n">
+        <v>352</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3995</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2219.444444444444</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3955</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1797.727272727273</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3905</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1446.296296296296</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3823</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1086.079545454545</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>W12</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5402</v>
+      </c>
+      <c r="B14" t="n">
+        <v>178</v>
+      </c>
+      <c r="C14" t="n">
+        <v>218</v>
+      </c>
+      <c r="D14" t="n">
+        <v>267</v>
+      </c>
+      <c r="E14" t="n">
+        <v>345</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5224</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2934.831460674157</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5184</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2377.981651376147</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5135</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1923.220973782772</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5057</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1465.797101449275</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>W13</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6990</v>
+      </c>
+      <c r="B15" t="n">
         <v>175</v>
       </c>
-      <c r="E2" t="n">
-        <v>201</v>
-      </c>
-      <c r="F2" t="n">
-        <v>223</v>
-      </c>
-      <c r="G2" t="n">
-        <v>256</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="C15" t="n">
+        <v>214</v>
+      </c>
+      <c r="D15" t="n">
+        <v>267</v>
+      </c>
+      <c r="E15" t="n">
+        <v>354</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6815</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3894.285714285714</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6776</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3166.355140186916</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6723</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2517.977528089888</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6636</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1874.576271186441</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>W14</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>9045</v>
+      </c>
+      <c r="B16" t="n">
+        <v>173</v>
+      </c>
+      <c r="C16" t="n">
+        <v>212</v>
+      </c>
+      <c r="D16" t="n">
+        <v>268</v>
+      </c>
+      <c r="E16" t="n">
+        <v>360</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8872</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5128.323699421966</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8833</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4166.509433962264</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8777</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3275</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8685</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2412.5</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>B0DGVC3DDW</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>162</v>
-      </c>
-      <c r="E3" t="n">
-        <v>191</v>
-      </c>
-      <c r="F3" t="n">
-        <v>219</v>
-      </c>
-      <c r="G3" t="n">
-        <v>261</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I3" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>W15</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11704</v>
+      </c>
+      <c r="B17" t="n">
+        <v>171</v>
+      </c>
+      <c r="C17" t="n">
+        <v>209</v>
+      </c>
+      <c r="D17" t="n">
+        <v>258</v>
+      </c>
+      <c r="E17" t="n">
+        <v>338</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11533</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6744.444444444444</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11495</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5500</v>
+      </c>
+      <c r="J17" t="n">
+        <v>11446</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4436.434108527132</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11366</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3362.721893491124</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>B0DGVC3DDW</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>325.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>153</v>
-      </c>
-      <c r="E4" t="n">
-        <v>181</v>
-      </c>
-      <c r="F4" t="n">
-        <v>209</v>
-      </c>
-      <c r="G4" t="n">
-        <v>251</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="I4" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W04</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>399.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>154</v>
-      </c>
-      <c r="E5" t="n">
-        <v>183</v>
-      </c>
-      <c r="F5" t="n">
-        <v>213</v>
-      </c>
-      <c r="G5" t="n">
-        <v>259</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W05</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>499.1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>163</v>
-      </c>
-      <c r="E6" t="n">
-        <v>195</v>
-      </c>
-      <c r="F6" t="n">
-        <v>229</v>
-      </c>
-      <c r="G6" t="n">
-        <v>282</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W06</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>622.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>167</v>
-      </c>
-      <c r="E7" t="n">
-        <v>200</v>
-      </c>
-      <c r="F7" t="n">
-        <v>236</v>
-      </c>
-      <c r="G7" t="n">
-        <v>291</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W07</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>787.3000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>177</v>
-      </c>
-      <c r="E8" t="n">
-        <v>214</v>
-      </c>
-      <c r="F8" t="n">
-        <v>255</v>
-      </c>
-      <c r="G8" t="n">
-        <v>321</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W08</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>987.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>171</v>
-      </c>
-      <c r="E9" t="n">
-        <v>207</v>
-      </c>
-      <c r="F9" t="n">
-        <v>249</v>
-      </c>
-      <c r="G9" t="n">
-        <v>315</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W09</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1244.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>164</v>
-      </c>
-      <c r="E10" t="n">
-        <v>198</v>
-      </c>
-      <c r="F10" t="n">
-        <v>233</v>
-      </c>
-      <c r="G10" t="n">
-        <v>288</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1591.8</v>
-      </c>
-      <c r="D11" t="n">
-        <v>174</v>
-      </c>
-      <c r="E11" t="n">
-        <v>211</v>
-      </c>
-      <c r="F11" t="n">
-        <v>254</v>
-      </c>
-      <c r="G11" t="n">
-        <v>321</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2028.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>168</v>
-      </c>
-      <c r="E12" t="n">
-        <v>204</v>
-      </c>
-      <c r="F12" t="n">
-        <v>245</v>
-      </c>
-      <c r="G12" t="n">
-        <v>312</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2607.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" t="n">
-        <v>220</v>
-      </c>
-      <c r="F13" t="n">
-        <v>270</v>
-      </c>
-      <c r="G13" t="n">
-        <v>352</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>3342</v>
-      </c>
-      <c r="D14" t="n">
-        <v>178</v>
-      </c>
-      <c r="E14" t="n">
-        <v>218</v>
-      </c>
-      <c r="F14" t="n">
-        <v>267</v>
-      </c>
-      <c r="G14" t="n">
-        <v>345</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4295</v>
-      </c>
-      <c r="D15" t="n">
-        <v>175</v>
-      </c>
-      <c r="E15" t="n">
-        <v>214</v>
-      </c>
-      <c r="F15" t="n">
-        <v>267</v>
-      </c>
-      <c r="G15" t="n">
-        <v>354</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5528.3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>173</v>
-      </c>
-      <c r="E16" t="n">
-        <v>212</v>
-      </c>
-      <c r="F16" t="n">
-        <v>268</v>
-      </c>
-      <c r="G16" t="n">
-        <v>360</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="P17" t="n">
+        <v/>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>W16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>7120</v>
-      </c>
-      <c r="D17" t="n">
-        <v>171</v>
-      </c>
-      <c r="E17" t="n">
-        <v>209</v>
-      </c>
-      <c r="F17" t="n">
-        <v>258</v>
-      </c>
-      <c r="G17" t="n">
-        <v>338</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="R17" t="n">
         <v/>
       </c>
     </row>
@@ -1152,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31890</t>
+          <t>50690</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>5728</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1236</t>
+          <t>1512</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>11704</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1689,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>254</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -640,7 +640,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>410</v>
+        <v>326</v>
       </c>
       <c r="B4" t="n">
         <v>153</v>
@@ -655,28 +655,28 @@
         <v>251</v>
       </c>
       <c r="F4" t="n">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9738562091503</v>
+        <v>113.0718954248366</v>
       </c>
       <c r="H4" t="n">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="I4" t="n">
-        <v>126.5193370165746</v>
+        <v>80.11049723756905</v>
       </c>
       <c r="J4" t="n">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="K4" t="n">
-        <v>96.17224880382776</v>
+        <v>55.98086124401915</v>
       </c>
       <c r="L4" t="n">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="M4" t="n">
-        <v>63.34661354581673</v>
+        <v>29.8804780876494</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>531</v>
+        <v>337</v>
       </c>
       <c r="B5" t="n">
         <v>154</v>
@@ -717,28 +717,28 @@
         <v>259</v>
       </c>
       <c r="F5" t="n">
-        <v>377</v>
+        <v>183</v>
       </c>
       <c r="G5" t="n">
-        <v>244.8051948051948</v>
+        <v>118.8311688311688</v>
       </c>
       <c r="H5" t="n">
-        <v>348</v>
+        <v>154</v>
       </c>
       <c r="I5" t="n">
-        <v>190.1639344262295</v>
+        <v>84.15300546448088</v>
       </c>
       <c r="J5" t="n">
-        <v>318</v>
+        <v>124</v>
       </c>
       <c r="K5" t="n">
-        <v>149.2957746478873</v>
+        <v>58.21596244131455</v>
       </c>
       <c r="L5" t="n">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
-        <v>105.019305019305</v>
+        <v>30.11583011583012</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>687</v>
+        <v>367</v>
       </c>
       <c r="B6" t="n">
         <v>163</v>
@@ -779,28 +779,28 @@
         <v>282</v>
       </c>
       <c r="F6" t="n">
-        <v>524</v>
+        <v>204</v>
       </c>
       <c r="G6" t="n">
-        <v>321.4723926380368</v>
+        <v>125.1533742331288</v>
       </c>
       <c r="H6" t="n">
-        <v>492</v>
+        <v>172</v>
       </c>
       <c r="I6" t="n">
-        <v>252.3076923076923</v>
+        <v>88.2051282051282</v>
       </c>
       <c r="J6" t="n">
-        <v>458</v>
+        <v>138</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>60.26200873362445</v>
       </c>
       <c r="L6" t="n">
-        <v>405</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>143.6170212765958</v>
+        <v>30.1418439716312</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>889</v>
+        <v>378</v>
       </c>
       <c r="B7" t="n">
         <v>167</v>
@@ -841,28 +841,28 @@
         <v>291</v>
       </c>
       <c r="F7" t="n">
-        <v>722</v>
+        <v>211</v>
       </c>
       <c r="G7" t="n">
-        <v>432.3353293413174</v>
+        <v>126.3473053892216</v>
       </c>
       <c r="H7" t="n">
-        <v>689</v>
+        <v>178</v>
       </c>
       <c r="I7" t="n">
-        <v>344.5</v>
+        <v>89</v>
       </c>
       <c r="J7" t="n">
-        <v>653</v>
+        <v>142</v>
       </c>
       <c r="K7" t="n">
-        <v>276.6949152542373</v>
+        <v>60.16949152542372</v>
       </c>
       <c r="L7" t="n">
-        <v>598</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>205.4982817869416</v>
+        <v>29.89690721649485</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1151</v>
+        <v>417</v>
       </c>
       <c r="B8" t="n">
         <v>177</v>
@@ -903,28 +903,28 @@
         <v>321</v>
       </c>
       <c r="F8" t="n">
-        <v>974</v>
+        <v>240</v>
       </c>
       <c r="G8" t="n">
-        <v>550.2824858757062</v>
+        <v>135.593220338983</v>
       </c>
       <c r="H8" t="n">
-        <v>937</v>
+        <v>203</v>
       </c>
       <c r="I8" t="n">
-        <v>437.8504672897196</v>
+        <v>94.85981308411215</v>
       </c>
       <c r="J8" t="n">
-        <v>896</v>
+        <v>162</v>
       </c>
       <c r="K8" t="n">
-        <v>351.3725490196078</v>
+        <v>63.52941176470588</v>
       </c>
       <c r="L8" t="n">
-        <v>830</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
-        <v>258.5669781931464</v>
+        <v>29.90654205607476</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1489</v>
+        <v>410</v>
       </c>
       <c r="B9" t="n">
         <v>171</v>
@@ -965,28 +965,28 @@
         <v>315</v>
       </c>
       <c r="F9" t="n">
-        <v>1318</v>
+        <v>239</v>
       </c>
       <c r="G9" t="n">
-        <v>770.7602339181286</v>
+        <v>139.766081871345</v>
       </c>
       <c r="H9" t="n">
-        <v>1282</v>
+        <v>203</v>
       </c>
       <c r="I9" t="n">
-        <v>619.3236714975845</v>
+        <v>98.06763285024155</v>
       </c>
       <c r="J9" t="n">
-        <v>1240</v>
+        <v>161</v>
       </c>
       <c r="K9" t="n">
-        <v>497.9919678714859</v>
+        <v>64.65863453815261</v>
       </c>
       <c r="L9" t="n">
-        <v>1174</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>372.6984126984127</v>
+        <v>30.15873015873016</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1927</v>
+        <v>374</v>
       </c>
       <c r="B10" t="n">
         <v>164</v>
@@ -1027,28 +1027,28 @@
         <v>288</v>
       </c>
       <c r="F10" t="n">
-        <v>1763</v>
+        <v>210</v>
       </c>
       <c r="G10" t="n">
-        <v>1075</v>
+        <v>128.0487804878049</v>
       </c>
       <c r="H10" t="n">
-        <v>1729</v>
+        <v>176</v>
       </c>
       <c r="I10" t="n">
-        <v>873.2323232323232</v>
+        <v>88.88888888888889</v>
       </c>
       <c r="J10" t="n">
-        <v>1694</v>
+        <v>141</v>
       </c>
       <c r="K10" t="n">
-        <v>727.0386266094421</v>
+        <v>60.51502145922747</v>
       </c>
       <c r="L10" t="n">
-        <v>1639</v>
+        <v>86</v>
       </c>
       <c r="M10" t="n">
-        <v>569.0972222222223</v>
+        <v>29.86111111111111</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2493</v>
+        <v>417</v>
       </c>
       <c r="B11" t="n">
         <v>174</v>
@@ -1089,28 +1089,28 @@
         <v>321</v>
       </c>
       <c r="F11" t="n">
-        <v>2319</v>
+        <v>243</v>
       </c>
       <c r="G11" t="n">
-        <v>1332.758620689655</v>
+        <v>139.6551724137931</v>
       </c>
       <c r="H11" t="n">
-        <v>2282</v>
+        <v>206</v>
       </c>
       <c r="I11" t="n">
-        <v>1081.516587677725</v>
+        <v>97.6303317535545</v>
       </c>
       <c r="J11" t="n">
-        <v>2239</v>
+        <v>163</v>
       </c>
       <c r="K11" t="n">
-        <v>881.4960629921259</v>
+        <v>64.1732283464567</v>
       </c>
       <c r="L11" t="n">
-        <v>2172</v>
+        <v>96</v>
       </c>
       <c r="M11" t="n">
-        <v>676.6355140186917</v>
+        <v>29.90654205607476</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3226</v>
+        <v>406</v>
       </c>
       <c r="B12" t="n">
         <v>168</v>
@@ -1151,28 +1151,28 @@
         <v>312</v>
       </c>
       <c r="F12" t="n">
-        <v>3058</v>
+        <v>238</v>
       </c>
       <c r="G12" t="n">
-        <v>1820.238095238095</v>
+        <v>141.6666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>3022</v>
+        <v>202</v>
       </c>
       <c r="I12" t="n">
-        <v>1481.372549019608</v>
+        <v>99.01960784313727</v>
       </c>
       <c r="J12" t="n">
-        <v>2981</v>
+        <v>161</v>
       </c>
       <c r="K12" t="n">
-        <v>1216.734693877551</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L12" t="n">
-        <v>2914</v>
+        <v>94</v>
       </c>
       <c r="M12" t="n">
-        <v>933.9743589743589</v>
+        <v>30.12820512820513</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4175</v>
+        <v>458</v>
       </c>
       <c r="B13" t="n">
         <v>180</v>
@@ -1213,28 +1213,28 @@
         <v>352</v>
       </c>
       <c r="F13" t="n">
-        <v>3995</v>
+        <v>278</v>
       </c>
       <c r="G13" t="n">
-        <v>2219.444444444444</v>
+        <v>154.4444444444445</v>
       </c>
       <c r="H13" t="n">
-        <v>3955</v>
+        <v>238</v>
       </c>
       <c r="I13" t="n">
-        <v>1797.727272727273</v>
+        <v>108.1818181818182</v>
       </c>
       <c r="J13" t="n">
-        <v>3905</v>
+        <v>188</v>
       </c>
       <c r="K13" t="n">
-        <v>1446.296296296296</v>
+        <v>69.62962962962963</v>
       </c>
       <c r="L13" t="n">
-        <v>3823</v>
+        <v>106</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.079545454545</v>
+        <v>30.11363636363636</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5402</v>
+        <v>448</v>
       </c>
       <c r="B14" t="n">
         <v>178</v>
@@ -1275,28 +1275,28 @@
         <v>345</v>
       </c>
       <c r="F14" t="n">
-        <v>5224</v>
+        <v>270</v>
       </c>
       <c r="G14" t="n">
-        <v>2934.831460674157</v>
+        <v>151.685393258427</v>
       </c>
       <c r="H14" t="n">
-        <v>5184</v>
+        <v>230</v>
       </c>
       <c r="I14" t="n">
-        <v>2377.981651376147</v>
+        <v>105.5045871559633</v>
       </c>
       <c r="J14" t="n">
-        <v>5135</v>
+        <v>181</v>
       </c>
       <c r="K14" t="n">
-        <v>1923.220973782772</v>
+        <v>67.79026217228464</v>
       </c>
       <c r="L14" t="n">
-        <v>5057</v>
+        <v>103</v>
       </c>
       <c r="M14" t="n">
-        <v>1465.797101449275</v>
+        <v>29.85507246376812</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6990</v>
+        <v>460</v>
       </c>
       <c r="B15" t="n">
         <v>175</v>
@@ -1337,28 +1337,28 @@
         <v>354</v>
       </c>
       <c r="F15" t="n">
-        <v>6815</v>
+        <v>285</v>
       </c>
       <c r="G15" t="n">
-        <v>3894.285714285714</v>
+        <v>162.8571428571429</v>
       </c>
       <c r="H15" t="n">
-        <v>6776</v>
+        <v>246</v>
       </c>
       <c r="I15" t="n">
-        <v>3166.355140186916</v>
+        <v>114.9532710280374</v>
       </c>
       <c r="J15" t="n">
-        <v>6723</v>
+        <v>193</v>
       </c>
       <c r="K15" t="n">
-        <v>2517.977528089888</v>
+        <v>72.28464419475655</v>
       </c>
       <c r="L15" t="n">
-        <v>6636</v>
+        <v>106</v>
       </c>
       <c r="M15" t="n">
-        <v>1874.576271186441</v>
+        <v>29.94350282485876</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9045</v>
+        <v>468</v>
       </c>
       <c r="B16" t="n">
         <v>173</v>
@@ -1399,28 +1399,28 @@
         <v>360</v>
       </c>
       <c r="F16" t="n">
-        <v>8872</v>
+        <v>295</v>
       </c>
       <c r="G16" t="n">
-        <v>5128.323699421966</v>
+        <v>170.5202312138728</v>
       </c>
       <c r="H16" t="n">
-        <v>8833</v>
+        <v>256</v>
       </c>
       <c r="I16" t="n">
-        <v>4166.509433962264</v>
+        <v>120.7547169811321</v>
       </c>
       <c r="J16" t="n">
-        <v>8777</v>
+        <v>200</v>
       </c>
       <c r="K16" t="n">
-        <v>3275</v>
+        <v>74.6268656716418</v>
       </c>
       <c r="L16" t="n">
-        <v>8685</v>
+        <v>108</v>
       </c>
       <c r="M16" t="n">
-        <v>2412.5</v>
+        <v>30</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11704</v>
+        <v>439</v>
       </c>
       <c r="B17" t="n">
         <v>171</v>
@@ -1461,28 +1461,28 @@
         <v>338</v>
       </c>
       <c r="F17" t="n">
-        <v>11533</v>
+        <v>268</v>
       </c>
       <c r="G17" t="n">
-        <v>6744.444444444444</v>
+        <v>156.7251461988304</v>
       </c>
       <c r="H17" t="n">
-        <v>11495</v>
+        <v>230</v>
       </c>
       <c r="I17" t="n">
-        <v>5500</v>
+        <v>110.0478468899522</v>
       </c>
       <c r="J17" t="n">
-        <v>11446</v>
+        <v>181</v>
       </c>
       <c r="K17" t="n">
-        <v>4436.434108527132</v>
+        <v>70.15503875968993</v>
       </c>
       <c r="L17" t="n">
-        <v>11366</v>
+        <v>101</v>
       </c>
       <c r="M17" t="n">
-        <v>3362.721893491124</v>
+        <v>29.88165680473373</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>50690</t>
+          <t>6276</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5728</t>
+          <t>2806</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1234</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11704</t>
+          <t>468</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-16</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,315 +477,360 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>174</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>526</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>489</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>645</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>189</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>552</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>499</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>582</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>712</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>184</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>512</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>454</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>540</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>676</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>182</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>498</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>442</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>526</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>659</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>165</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>353</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>318</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>372</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>455</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>166</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>362</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>322</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>382</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>478</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>165</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>352</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>309</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>372</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>471</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>168</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>381</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>331</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>403</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>519</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>164</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>343</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>305</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>362</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>451</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v/>
       </c>
     </row>
@@ -792,30 +842,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>166</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>369</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>317</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>390</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>510</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v/>
       </c>
     </row>
@@ -827,30 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>166</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>368</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>310</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>390</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>520</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v/>
       </c>
     </row>
@@ -862,30 +922,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>166</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>369</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>311</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>390</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>519</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v/>
       </c>
     </row>
@@ -897,30 +962,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>164</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>347</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>294</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>367</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>487</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v/>
       </c>
     </row>
@@ -932,30 +1002,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>163</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>338</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>282</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>357</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>480</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v/>
       </c>
     </row>
@@ -967,30 +1042,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>163</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>342</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>279</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>361</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>497</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v/>
       </c>
     </row>
@@ -1002,30 +1082,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>161</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>324</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>273</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>343</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>458</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>X870 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v/>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E2" t="n">
         <v>526</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E3" t="n">
         <v>552</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E4" t="n">
         <v>512</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E5" t="n">
         <v>498</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E6" t="n">
         <v>353</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E7" t="n">
         <v>362</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E8" t="n">
         <v>352</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E9" t="n">
         <v>381</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E10" t="n">
         <v>343</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E11" t="n">
         <v>369</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E12" t="n">
         <v>368</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E13" t="n">
         <v>369</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E14" t="n">
         <v>347</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E15" t="n">
         <v>338</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E16" t="n">
         <v>342</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E17" t="n">
         <v>324</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2705</t>
+          <t>2518</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1391</t>
+          <t>1287</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>666</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>152</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>158</v>
+        <v>521</v>
       </c>
       <c r="E2" t="n">
         <v>526</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>172</v>
+        <v>545</v>
       </c>
       <c r="E3" t="n">
         <v>552</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>168</v>
+        <v>503</v>
       </c>
       <c r="E4" t="n">
         <v>512</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>167</v>
+        <v>490</v>
       </c>
       <c r="E5" t="n">
         <v>498</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="E6" t="n">
         <v>353</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>155</v>
+        <v>356</v>
       </c>
       <c r="E7" t="n">
         <v>362</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="E8" t="n">
         <v>352</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>157</v>
+        <v>373</v>
       </c>
       <c r="E9" t="n">
         <v>381</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="E10" t="n">
         <v>343</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>156</v>
+        <v>361</v>
       </c>
       <c r="E11" t="n">
         <v>369</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>156</v>
+        <v>359</v>
       </c>
       <c r="E12" t="n">
         <v>368</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>156</v>
+        <v>359</v>
       </c>
       <c r="E13" t="n">
         <v>369</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="E14" t="n">
         <v>347</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>153</v>
+        <v>328</v>
       </c>
       <c r="E15" t="n">
         <v>338</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>153</v>
+        <v>331</v>
       </c>
       <c r="E16" t="n">
         <v>342</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>152</v>
+        <v>316</v>
       </c>
       <c r="E17" t="n">
         <v>324</v>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>6133</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>3403</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>2059</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>545</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>270</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>521</v>
+        <v>261</v>
       </c>
       <c r="E2" t="n">
         <v>526</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>545</v>
+        <v>266</v>
       </c>
       <c r="E3" t="n">
         <v>552</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>503</v>
+        <v>258</v>
       </c>
       <c r="E4" t="n">
         <v>512</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>490</v>
+        <v>255</v>
       </c>
       <c r="E5" t="n">
         <v>498</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="E6" t="n">
         <v>353</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>356</v>
+        <v>229</v>
       </c>
       <c r="E7" t="n">
         <v>362</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>345</v>
+        <v>222</v>
       </c>
       <c r="E8" t="n">
         <v>352</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="E9" t="n">
         <v>381</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="E10" t="n">
         <v>343</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>361</v>
+        <v>226</v>
       </c>
       <c r="E11" t="n">
         <v>369</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="E12" t="n">
         <v>368</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>359</v>
+        <v>235</v>
       </c>
       <c r="E13" t="n">
         <v>369</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="E14" t="n">
         <v>347</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>328</v>
+        <v>223</v>
       </c>
       <c r="E15" t="n">
         <v>338</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>331</v>
+        <v>238</v>
       </c>
       <c r="E16" t="n">
         <v>342</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>316</v>
+        <v>232</v>
       </c>
       <c r="E17" t="n">
         <v>324</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2024-12-29</t>
+          <t>2024-09-08 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>105</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>76</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1681 units</t>
+          <t>1894 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6133</t>
+          <t>3814</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>1977</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1041</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>266</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>222</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,19 +491,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="E2" t="n">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="F2" t="n">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="G2" t="n">
-        <v>551</v>
+        <v>607</v>
       </c>
       <c r="H2" t="n">
-        <v>645</v>
+        <v>704</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,19 +531,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="E3" t="n">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="F3" t="n">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="G3" t="n">
-        <v>582</v>
+        <v>697</v>
       </c>
       <c r="H3" t="n">
-        <v>712</v>
+        <v>851</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,19 +571,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="E4" t="n">
-        <v>512</v>
+        <v>372</v>
       </c>
       <c r="F4" t="n">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="G4" t="n">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="H4" t="n">
-        <v>676</v>
+        <v>622</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,19 +611,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="E5" t="n">
-        <v>498</v>
+        <v>352</v>
       </c>
       <c r="F5" t="n">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="G5" t="n">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="H5" t="n">
-        <v>659</v>
+        <v>592</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="E6" t="n">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="F6" t="n">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="G6" t="n">
-        <v>372</v>
+        <v>478</v>
       </c>
       <c r="H6" t="n">
-        <v>455</v>
+        <v>588</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,19 +691,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E7" t="n">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="F7" t="n">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="G7" t="n">
-        <v>382</v>
+        <v>467</v>
       </c>
       <c r="H7" t="n">
-        <v>478</v>
+        <v>582</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="E8" t="n">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="F8" t="n">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="G8" t="n">
-        <v>372</v>
+        <v>455</v>
       </c>
       <c r="H8" t="n">
-        <v>471</v>
+        <v>585</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E9" t="n">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="F9" t="n">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="G9" t="n">
-        <v>403</v>
+        <v>480</v>
       </c>
       <c r="H9" t="n">
-        <v>519</v>
+        <v>627</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,19 +811,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="E10" t="n">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="F10" t="n">
-        <v>305</v>
+        <v>379</v>
       </c>
       <c r="G10" t="n">
-        <v>362</v>
+        <v>455</v>
       </c>
       <c r="H10" t="n">
-        <v>451</v>
+        <v>576</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,19 +851,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="E11" t="n">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="F11" t="n">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="G11" t="n">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="H11" t="n">
-        <v>510</v>
+        <v>604</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="E12" t="n">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="F12" t="n">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="G12" t="n">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="H12" t="n">
-        <v>520</v>
+        <v>625</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E13" t="n">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="F13" t="n">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="G13" t="n">
-        <v>390</v>
+        <v>446</v>
       </c>
       <c r="H13" t="n">
-        <v>519</v>
+        <v>600</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,19 +971,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="E14" t="n">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="F14" t="n">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="G14" t="n">
-        <v>367</v>
+        <v>427</v>
       </c>
       <c r="H14" t="n">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,19 +1011,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E15" t="n">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="F15" t="n">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="G15" t="n">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="H15" t="n">
-        <v>480</v>
+        <v>561</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E16" t="n">
-        <v>342</v>
+        <v>270</v>
       </c>
       <c r="F16" t="n">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="G16" t="n">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="H16" t="n">
-        <v>497</v>
+        <v>589</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E17" t="n">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="F17" t="n">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="G17" t="n">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="H17" t="n">
-        <v>458</v>
+        <v>567</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-05</t>
+          <t>2024-09-08 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>380</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>112</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1894 units</t>
+          <t>2274 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3814</t>
+          <t>4124</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>2153</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1140</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>315</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>231</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-05-04</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="E2" t="n">
         <v>469</v>
@@ -510,8 +510,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>315</v>
+        <v>240</v>
       </c>
       <c r="E3" t="n">
         <v>501</v>
@@ -550,8 +550,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="E4" t="n">
         <v>372</v>
@@ -590,8 +590,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E5" t="n">
         <v>352</v>
@@ -630,8 +630,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="E6" t="n">
         <v>339</v>
@@ -670,8 +670,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="E7" t="n">
         <v>326</v>
@@ -710,8 +710,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E8" t="n">
         <v>307</v>
@@ -750,8 +750,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E9" t="n">
         <v>318</v>
@@ -790,8 +790,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E10" t="n">
         <v>312</v>
@@ -830,8 +830,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E11" t="n">
         <v>299</v>
@@ -870,8 +870,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E12" t="n">
         <v>301</v>
@@ -910,8 +910,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="E13" t="n">
         <v>288</v>
@@ -950,8 +950,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E14" t="n">
         <v>277</v>
@@ -990,8 +990,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="E15" t="n">
         <v>265</v>
@@ -1030,8 +1030,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="E16" t="n">
         <v>270</v>
@@ -1070,8 +1070,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="E17" t="n">
         <v>265</v>
@@ -1110,8 +1110,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4124</t>
+          <t>4114</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2153</t>
+          <t>1977</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>964</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>271</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-04-27</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>239</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>239</v>
+        <v>330</v>
       </c>
       <c r="E2" t="n">
         <v>469</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="E3" t="n">
         <v>501</v>
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="E4" t="n">
         <v>372</v>
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="E5" t="n">
         <v>352</v>
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="E6" t="n">
         <v>339</v>
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E7" t="n">
         <v>326</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="E8" t="n">
         <v>307</v>
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="E9" t="n">
         <v>318</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="E10" t="n">
         <v>312</v>
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="E11" t="n">
         <v>299</v>
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="E12" t="n">
         <v>301</v>
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E13" t="n">
         <v>288</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E14" t="n">
         <v>277</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E15" t="n">
         <v>265</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E16" t="n">
         <v>270</v>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E17" t="n">
         <v>265</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-12</t>
+          <t>2024-09-08 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>417</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>97</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2274 units</t>
+          <t>2691 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4114</t>
+          <t>4583</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>2327</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>1210</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>338</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>268</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E2" t="n">
         <v>469</v>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E3" t="n">
         <v>501</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E4" t="n">
         <v>372</v>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E5" t="n">
         <v>352</v>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E6" t="n">
         <v>339</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E7" t="n">
         <v>326</v>
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E8" t="n">
         <v>307</v>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E9" t="n">
         <v>318</v>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E10" t="n">
         <v>312</v>
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E11" t="n">
         <v>299</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E12" t="n">
         <v>301</v>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E13" t="n">
         <v>288</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E14" t="n">
         <v>277</v>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E15" t="n">
         <v>265</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E16" t="n">
         <v>270</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E17" t="n">
         <v>265</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>380</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>121</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2691 units</t>
+          <t>2626 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4583</t>
+          <t>4479</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>2275</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1184</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>332</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>262</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2024-12-29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>324</v>
+        <v>274</v>
       </c>
       <c r="E2" t="n">
         <v>469</v>
@@ -510,8 +510,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
+      <c r="J2" t="n">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-05</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="E3" t="n">
         <v>501</v>
@@ -550,8 +550,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
+      <c r="J3" t="n">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E4" t="n">
         <v>372</v>
@@ -590,8 +590,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
+      <c r="J4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="E5" t="n">
         <v>352</v>
@@ -630,8 +630,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="J5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="E6" t="n">
         <v>339</v>
@@ -670,8 +670,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="E7" t="n">
         <v>326</v>
@@ -710,8 +710,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
+      <c r="J7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="E8" t="n">
         <v>307</v>
@@ -750,8 +750,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
+      <c r="J8" t="n">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="E9" t="n">
         <v>318</v>
@@ -790,8 +790,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
+      <c r="J9" t="n">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E10" t="n">
         <v>312</v>
@@ -830,8 +830,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
+      <c r="J10" t="n">
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -870,8 +870,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -910,8 +910,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
+      <c r="J12" t="n">
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -950,8 +950,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
+      <c r="J13" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -990,8 +990,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
+      <c r="J14" t="n">
+        <v/>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1030,8 +1030,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
+      <c r="J15" t="n">
+        <v/>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1070,8 +1070,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
+      <c r="J16" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,8 +1110,8 @@
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="b">
-        <v>0</v>
+      <c r="J17" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4479</t>
+          <t>4486</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2275</t>
+          <t>2280</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1141</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>302</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>271</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-30</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
+++ b/Sufficient data/forecast_summary_B0DGVC3DDW.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-29</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,27 +491,27 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="E2" t="n">
-        <v>469</v>
+        <v>301</v>
       </c>
       <c r="F2" t="n">
-        <v>543</v>
+        <v>355</v>
       </c>
       <c r="G2" t="n">
-        <v>607</v>
+        <v>404</v>
       </c>
       <c r="H2" t="n">
-        <v>704</v>
+        <v>481</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v/>
+      <c r="J2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -531,27 +531,27 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="E3" t="n">
-        <v>501</v>
+        <v>257</v>
       </c>
       <c r="F3" t="n">
-        <v>599</v>
+        <v>307</v>
       </c>
       <c r="G3" t="n">
-        <v>697</v>
+        <v>355</v>
       </c>
       <c r="H3" t="n">
-        <v>851</v>
+        <v>430</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J3" t="n">
-        <v/>
+      <c r="J3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,27 +571,27 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E4" t="n">
-        <v>372</v>
+        <v>255</v>
       </c>
       <c r="F4" t="n">
-        <v>443</v>
+        <v>305</v>
       </c>
       <c r="G4" t="n">
-        <v>513</v>
+        <v>356</v>
       </c>
       <c r="H4" t="n">
-        <v>622</v>
+        <v>434</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J4" t="n">
-        <v/>
+      <c r="J4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -611,27 +611,27 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="E5" t="n">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="F5" t="n">
-        <v>419</v>
+        <v>296</v>
       </c>
       <c r="G5" t="n">
-        <v>487</v>
+        <v>348</v>
       </c>
       <c r="H5" t="n">
-        <v>592</v>
+        <v>428</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J5" t="n">
-        <v/>
+      <c r="J5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -651,27 +651,27 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="E6" t="n">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="F6" t="n">
-        <v>407</v>
+        <v>304</v>
       </c>
       <c r="G6" t="n">
-        <v>478</v>
+        <v>362</v>
       </c>
       <c r="H6" t="n">
-        <v>588</v>
+        <v>454</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v/>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -691,27 +691,27 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="E7" t="n">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="F7" t="n">
-        <v>394</v>
+        <v>284</v>
       </c>
       <c r="G7" t="n">
-        <v>467</v>
+        <v>341</v>
       </c>
       <c r="H7" t="n">
-        <v>582</v>
+        <v>431</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J7" t="n">
-        <v/>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,27 +731,27 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="E8" t="n">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="F8" t="n">
-        <v>374</v>
+        <v>290</v>
       </c>
       <c r="G8" t="n">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="H8" t="n">
-        <v>585</v>
+        <v>477</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J8" t="n">
-        <v/>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,27 +771,27 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="E9" t="n">
-        <v>318</v>
+        <v>240</v>
       </c>
       <c r="F9" t="n">
-        <v>389</v>
+        <v>294</v>
       </c>
       <c r="G9" t="n">
-        <v>480</v>
+        <v>371</v>
       </c>
       <c r="H9" t="n">
-        <v>627</v>
+        <v>497</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v/>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="E10" t="n">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="F10" t="n">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="G10" t="n">
-        <v>455</v>
+        <v>351</v>
       </c>
       <c r="H10" t="n">
-        <v>576</v>
+        <v>453</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v/>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -851,27 +851,27 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E11" t="n">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="F11" t="n">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="G11" t="n">
-        <v>456</v>
+        <v>346</v>
       </c>
       <c r="H11" t="n">
-        <v>604</v>
+        <v>463</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -891,27 +891,27 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E12" t="n">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="F12" t="n">
-        <v>367</v>
+        <v>276</v>
       </c>
       <c r="G12" t="n">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="H12" t="n">
-        <v>625</v>
+        <v>472</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J12" t="n">
-        <v/>
+      <c r="J12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -931,27 +931,27 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E13" t="n">
-        <v>288</v>
+        <v>220</v>
       </c>
       <c r="F13" t="n">
-        <v>352</v>
+        <v>269</v>
       </c>
       <c r="G13" t="n">
-        <v>446</v>
+        <v>340</v>
       </c>
       <c r="H13" t="n">
-        <v>600</v>
+        <v>458</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J13" t="n">
-        <v/>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -971,27 +971,27 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="E14" t="n">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="F14" t="n">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="G14" t="n">
-        <v>427</v>
+        <v>334</v>
       </c>
       <c r="H14" t="n">
-        <v>571</v>
+        <v>449</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J14" t="n">
-        <v/>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1011,27 +1011,27 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E15" t="n">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="F15" t="n">
-        <v>324</v>
+        <v>251</v>
       </c>
       <c r="G15" t="n">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="H15" t="n">
-        <v>561</v>
+        <v>429</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v/>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1054,24 +1054,24 @@
         <v>272</v>
       </c>
       <c r="E16" t="n">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="F16" t="n">
-        <v>329</v>
+        <v>255</v>
       </c>
       <c r="G16" t="n">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="H16" t="n">
-        <v>589</v>
+        <v>439</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J16" t="n">
-        <v/>
+      <c r="J16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-05-18</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1091,27 +1091,27 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E17" t="n">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="F17" t="n">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="G17" t="n">
-        <v>415</v>
+        <v>322</v>
       </c>
       <c r="H17" t="n">
-        <v>567</v>
+        <v>435</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="J17" t="n">
-        <v/>
+      <c r="J17" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-09-08 to 2025-01-19</t>
+          <t>2024-09-08 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>109</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>118</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2626 units</t>
+          <t>2773 units</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4486</t>
+          <t>4657</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>2389</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1140</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>325</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-03-02</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>248</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
